--- a/results/mp/logistic/home-spam/confidence/126/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/126/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="124">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,235 +40,259 @@
     <t>name</t>
   </si>
   <si>
+    <t>return</t>
+  </si>
+  <si>
     <t>stopped</t>
   </si>
   <si>
-    <t>return</t>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>waste</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>useless</t>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>broke</t>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>filters</t>
   </si>
   <si>
     <t>maybe</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>filters</t>
-  </si>
-  <si>
-    <t>difficult</t>
+    <t>poorly</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
+    <t>cracked</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>returning</t>
+  </si>
+  <si>
+    <t>seal</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>spray</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>months</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>poorly</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>spray</t>
-  </si>
-  <si>
     <t>grind</t>
   </si>
   <si>
+    <t>thick</t>
+  </si>
+  <si>
     <t>lid</t>
   </si>
   <si>
-    <t>cracked</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
     <t>half</t>
   </si>
   <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>instructions</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
     <t>back</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>rust</t>
   </si>
   <si>
     <t>received</t>
   </si>
   <si>
-    <t>iron</t>
+    <t>less</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>worked</t>
   </si>
   <si>
     <t>side</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>sent</t>
   </si>
   <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>okay</t>
+    <t>sharpe</t>
   </si>
   <si>
     <t>lasted</t>
   </si>
   <si>
+    <t>unit</t>
+  </si>
+  <si>
     <t>machine</t>
   </si>
   <si>
-    <t>unit</t>
+    <t>2</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>way</t>
+    <t>box</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>keep</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>rust</t>
-  </si>
-  <si>
-    <t>heat</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>tried</t>
+    <t>water</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>put</t>
+    <t>item</t>
+  </si>
+  <si>
+    <t>came</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>even</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>got</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
+    <t>made</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>pan</t>
   </si>
   <si>
     <t>used</t>
@@ -295,25 +319,28 @@
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>perfectly</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>glad</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>ze</t>
   </si>
   <si>
     <t>wonderful</t>
@@ -322,28 +349,37 @@
     <t>salad</t>
   </si>
   <si>
-    <t>ze</t>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>simple</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
     <t>keeps</t>
   </si>
   <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>works</t>
   </si>
   <si>
     <t>well</t>
+  </si>
+  <si>
+    <t>quality</t>
   </si>
   <si>
     <t>good</t>
@@ -707,7 +743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -715,10 +751,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="J1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -776,13 +812,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9245283018867925</v>
+        <v>0.9380530973451328</v>
       </c>
       <c r="C3">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="D3">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -794,19 +830,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="K3">
-        <v>0.84375</v>
+        <v>0.828125</v>
       </c>
       <c r="L3">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M3">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -818,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -826,13 +862,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9203539823008849</v>
+        <v>0.9245283018867925</v>
       </c>
       <c r="C4">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="D4">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -844,19 +880,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K4">
-        <v>0.7741935483870968</v>
+        <v>0.7634408602150538</v>
       </c>
       <c r="L4">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M4">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -868,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -876,13 +912,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="D5">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -894,19 +930,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K5">
-        <v>0.7423728813559322</v>
+        <v>0.7220338983050848</v>
       </c>
       <c r="L5">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M5">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -918,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -926,13 +962,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.898989898989899</v>
+        <v>0.875</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -944,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="K6">
-        <v>0.7391304347826086</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -968,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -976,13 +1012,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8813559322033898</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="C7">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D7">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -994,19 +1030,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K7">
-        <v>0.6857585139318886</v>
+        <v>0.6377708978328174</v>
       </c>
       <c r="L7">
-        <v>443</v>
+        <v>412</v>
       </c>
       <c r="M7">
-        <v>443</v>
+        <v>412</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1018,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>203</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1026,13 +1062,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.875</v>
+        <v>0.86</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1044,19 +1080,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K8">
-        <v>0.6233766233766234</v>
+        <v>0.5367965367965368</v>
       </c>
       <c r="L8">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="M8">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1068,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>29</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1076,13 +1112,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8076923076923077</v>
+        <v>0.7783783783783784</v>
       </c>
       <c r="C9">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="D9">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1094,19 +1130,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K9">
-        <v>0.5757575757575758</v>
+        <v>0.5194805194805194</v>
       </c>
       <c r="L9">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="M9">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1118,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>98</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1126,13 +1162,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7945945945945946</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="D10">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1144,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K10">
         <v>0.4736842105263158</v>
@@ -1176,7 +1212,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7169811320754716</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C11">
         <v>38</v>
@@ -1194,19 +1230,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K11">
-        <v>0.3714285714285714</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="M11">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1218,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>110</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1226,13 +1262,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7123287671232876</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="C12">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1244,19 +1280,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K12">
-        <v>0.3443017656500802</v>
+        <v>0.32</v>
       </c>
       <c r="L12">
-        <v>429</v>
+        <v>56</v>
       </c>
       <c r="M12">
-        <v>429</v>
+        <v>56</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1268,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>817</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1297,16 +1333,16 @@
         <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K13">
-        <v>0.3423423423423423</v>
+        <v>0.3125</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1318,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1326,13 +1362,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6764705882352942</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="C14">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D14">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1344,31 +1380,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K14">
-        <v>0.3333333333333333</v>
+        <v>0.2885852090032154</v>
       </c>
       <c r="L14">
-        <v>15</v>
+        <v>359</v>
       </c>
       <c r="M14">
-        <v>15</v>
+        <v>361</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>885</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1376,13 +1412,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6592592592592592</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C15">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1394,19 +1430,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K15">
-        <v>0.3043478260869565</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1418,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1426,13 +1462,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6307692307692307</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="C16">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="D16">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1444,19 +1480,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K16">
-        <v>0.2602739726027397</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="L16">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M16">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1468,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1476,38 +1512,38 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6296296296296297</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C17">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>12</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17">
+        <v>0.2328767123287671</v>
+      </c>
+      <c r="L17">
         <v>17</v>
       </c>
-      <c r="D17">
+      <c r="M17">
         <v>17</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>10</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K17">
-        <v>0.2592592592592592</v>
-      </c>
-      <c r="L17">
-        <v>21</v>
-      </c>
-      <c r="M17">
-        <v>21</v>
-      </c>
       <c r="N17">
         <v>1</v>
       </c>
@@ -1518,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1526,13 +1562,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6132075471698113</v>
+        <v>0.6434108527131783</v>
       </c>
       <c r="C18">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D18">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1544,19 +1580,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K18">
-        <v>0.1780821917808219</v>
+        <v>0.2112676056338028</v>
       </c>
       <c r="L18">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="M18">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1568,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>600</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1576,13 +1612,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5977011494252874</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C19">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D19">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1594,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K19">
-        <v>0.1282051282051282</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L19">
         <v>15</v>
@@ -1618,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>102</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1626,37 +1662,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5813953488372093</v>
+        <v>0.5904761904761905</v>
       </c>
       <c r="C20">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D20">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K20">
-        <v>0.1258278145695364</v>
+        <v>0.173972602739726</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1668,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>132</v>
+        <v>603</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1676,13 +1712,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5769230769230769</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C21">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1694,31 +1730,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K21">
-        <v>0.08695652173913043</v>
+        <v>0.152317880794702</v>
       </c>
       <c r="L21">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N21">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>189</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1726,13 +1762,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5517241379310345</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1744,31 +1780,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="K22">
-        <v>0.08374384236453201</v>
+        <v>0.1450381679389313</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N22">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>372</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1776,13 +1812,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.527027027027027</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C23">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D23">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1794,31 +1830,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K23">
-        <v>0.06266666666666666</v>
+        <v>0.1197604790419162</v>
       </c>
       <c r="L23">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="N23">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>703</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1826,13 +1862,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5151515151515151</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D24">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1844,31 +1880,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="K24">
-        <v>0.03727506426735219</v>
+        <v>0.09313725490196079</v>
       </c>
       <c r="L24">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="N24">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>749</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1876,13 +1912,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5070422535211268</v>
+        <v>0.5512820512820513</v>
       </c>
       <c r="C25">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D25">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1897,28 +1933,28 @@
         <v>35</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K25">
-        <v>0.03246753246753246</v>
+        <v>0.07655502392344497</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M25">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N25">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>894</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1926,13 +1962,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.504424778761062</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C26">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1944,7 +1980,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>56</v>
+        <v>15</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K26">
+        <v>0.0534045393858478</v>
+      </c>
+      <c r="L26">
+        <v>40</v>
+      </c>
+      <c r="M26">
+        <v>46</v>
+      </c>
+      <c r="N26">
+        <v>0.87</v>
+      </c>
+      <c r="O26">
+        <v>0.13</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>709</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1952,13 +2012,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C27">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D27">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1970,7 +2030,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>17</v>
+        <v>68</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K27">
+        <v>0.04498714652956298</v>
+      </c>
+      <c r="L27">
+        <v>35</v>
+      </c>
+      <c r="M27">
+        <v>39</v>
+      </c>
+      <c r="N27">
+        <v>0.9</v>
+      </c>
+      <c r="O27">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>743</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1978,13 +2062,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C28">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="D28">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1996,7 +2080,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>45</v>
+        <v>90</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K28">
+        <v>0.03597122302158273</v>
+      </c>
+      <c r="L28">
+        <v>15</v>
+      </c>
+      <c r="M28">
+        <v>17</v>
+      </c>
+      <c r="N28">
+        <v>0.88</v>
+      </c>
+      <c r="O28">
+        <v>0.12</v>
+      </c>
+      <c r="P28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>402</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2004,13 +2112,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4772727272727273</v>
+        <v>0.5352112676056338</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D29">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2022,7 +2130,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K29">
+        <v>0.03017241379310345</v>
+      </c>
+      <c r="L29">
+        <v>28</v>
+      </c>
+      <c r="M29">
+        <v>29</v>
+      </c>
+      <c r="N29">
+        <v>0.97</v>
+      </c>
+      <c r="O29">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>900</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2030,13 +2162,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4615384615384616</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C30">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D30">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2048,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2056,13 +2188,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4423076923076923</v>
+        <v>0.4690265486725664</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D31">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2074,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2082,13 +2214,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4368932038834951</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C32">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2100,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>58</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2108,13 +2240,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4326923076923077</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C33">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2126,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2134,13 +2266,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3777777777777778</v>
+        <v>0.4271844660194175</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D34">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2152,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>28</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2160,13 +2292,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3518518518518519</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="C35">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D35">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2178,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2186,13 +2318,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3461538461538461</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="C36">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D36">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2204,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2212,13 +2344,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3454545454545455</v>
+        <v>0.4</v>
       </c>
       <c r="C37">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D37">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2230,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2238,13 +2370,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3184357541899441</v>
+        <v>0.391025641025641</v>
       </c>
       <c r="C38">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D38">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2256,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>122</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2264,13 +2396,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.303030303030303</v>
+        <v>0.3787878787878788</v>
       </c>
       <c r="C39">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D39">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2282,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2290,13 +2422,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.288135593220339</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="C40">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D40">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2308,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2316,13 +2448,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2783505154639175</v>
+        <v>0.3557692307692308</v>
       </c>
       <c r="C41">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D41">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2334,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2342,13 +2474,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2763157894736842</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="C42">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D42">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2360,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2368,13 +2500,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2666666666666667</v>
+        <v>0.3434343434343434</v>
       </c>
       <c r="C43">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D43">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2386,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>154</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2394,13 +2526,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2641509433962264</v>
+        <v>0.335195530726257</v>
       </c>
       <c r="C44">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="D44">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2412,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>273</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2420,13 +2552,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2619047619047619</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C45">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D45">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2438,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>93</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2446,13 +2578,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.255</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="C46">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="D46">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2464,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>149</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2472,13 +2604,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2424242424242424</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="C47">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D47">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2490,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>75</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2498,13 +2630,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2409638554216867</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="C48">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D48">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2516,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2524,13 +2656,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.24</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="C49">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D49">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2542,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>76</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2550,13 +2682,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2251655629139073</v>
+        <v>0.2577319587628866</v>
       </c>
       <c r="C50">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D50">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2568,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>117</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2576,13 +2708,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2233009708737864</v>
+        <v>0.2526881720430108</v>
       </c>
       <c r="C51">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D51">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2594,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>80</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2602,13 +2734,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2222222222222222</v>
+        <v>0.2428571428571429</v>
       </c>
       <c r="C52">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D52">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2620,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>63</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2628,13 +2760,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="C53">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D53">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2646,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2654,13 +2786,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1954022988505747</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="C54">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D54">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2672,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>70</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2680,25 +2812,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1783783783783784</v>
+        <v>0.2317880794701987</v>
       </c>
       <c r="C55">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D55">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E55">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>152</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2706,13 +2838,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.173469387755102</v>
+        <v>0.23</v>
       </c>
       <c r="C56">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D56">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2724,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>243</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2732,13 +2864,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1655172413793103</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="C57">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="D57">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2750,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>121</v>
+        <v>287</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2758,13 +2890,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1621621621621622</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C58">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D58">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2776,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>93</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2784,25 +2916,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1616161616161616</v>
+        <v>0.2207792207792208</v>
       </c>
       <c r="C59">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D59">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2810,13 +2942,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1441048034934498</v>
+        <v>0.2137931034482759</v>
       </c>
       <c r="C60">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D60">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2828,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>196</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2836,13 +2968,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1360544217687075</v>
+        <v>0.2023809523809524</v>
       </c>
       <c r="C61">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D61">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2854,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>635</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2862,13 +2994,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1317829457364341</v>
+        <v>0.2006802721088435</v>
       </c>
       <c r="C62">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="D62">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2880,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>112</v>
+        <v>235</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2888,25 +3020,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1240208877284595</v>
+        <v>0.1801801801801802</v>
       </c>
       <c r="C63">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="D63">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="E63">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>671</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2914,13 +3046,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1153846153846154</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C64">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D64">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2932,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>161</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2940,13 +3072,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1137123745819398</v>
+        <v>0.1700680272108843</v>
       </c>
       <c r="C65">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D65">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2958,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>265</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2966,13 +3098,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.112781954887218</v>
+        <v>0.1553398058252427</v>
       </c>
       <c r="C66">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D66">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2984,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>118</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2992,25 +3124,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1049723756906077</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C67">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D67">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E67">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3018,25 +3150,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1015228426395939</v>
+        <v>0.1528384279475982</v>
       </c>
       <c r="C68">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D68">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E68">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3044,25 +3176,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.0975609756097561</v>
+        <v>0.1524390243902439</v>
       </c>
       <c r="C69">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D69">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>370</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3070,13 +3202,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.09239130434782608</v>
+        <v>0.1460674157303371</v>
       </c>
       <c r="C70">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D70">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3088,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3096,13 +3228,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.0898876404494382</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C71">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="D71">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3114,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>162</v>
+        <v>630</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3122,25 +3254,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.06870229007633588</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="C72">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D72">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E72">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>366</v>
+        <v>260</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3148,13 +3280,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.05882352941176471</v>
+        <v>0.1197183098591549</v>
       </c>
       <c r="C73">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D73">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3166,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>256</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3174,25 +3306,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.04856895056374675</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C74">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="D74">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="E74">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="F74">
-        <v>0.9299999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>1097</v>
+        <v>680</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3200,25 +3332,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.04761904761904762</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C75">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D75">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E75">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>340</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3226,25 +3358,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.0467032967032967</v>
+        <v>0.1073170731707317</v>
       </c>
       <c r="C76">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D76">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E76">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>347</v>
+        <v>366</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3252,25 +3384,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.04156479217603912</v>
+        <v>0.09933774834437085</v>
       </c>
       <c r="C77">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D77">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E77">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="F77">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>392</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3278,25 +3410,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04143646408839779</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="C78">
         <v>15</v>
       </c>
       <c r="D78">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E78">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>347</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3304,25 +3436,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.04087193460490463</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="C79">
         <v>15</v>
       </c>
       <c r="D79">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E79">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="F79">
-        <v>0.79</v>
+        <v>0.88</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>352</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3330,25 +3462,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04046242774566474</v>
+        <v>0.07868020304568528</v>
       </c>
       <c r="C80">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D80">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E80">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>498</v>
+        <v>363</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3356,25 +3488,233 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.02830188679245283</v>
+        <v>0.06302521008403361</v>
       </c>
       <c r="C81">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D81">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="E81">
-        <v>0.29</v>
+        <v>0.06</v>
       </c>
       <c r="F81">
-        <v>0.71</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>1030</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82">
+        <v>0.05797101449275362</v>
+      </c>
+      <c r="C82">
+        <v>20</v>
+      </c>
+      <c r="D82">
+        <v>20</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83">
+        <v>0.05514705882352941</v>
+      </c>
+      <c r="C83">
+        <v>15</v>
+      </c>
+      <c r="D83">
+        <v>15</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84">
+        <v>0.05400696864111498</v>
+      </c>
+      <c r="C84">
+        <v>62</v>
+      </c>
+      <c r="D84">
+        <v>71</v>
+      </c>
+      <c r="E84">
+        <v>0.13</v>
+      </c>
+      <c r="F84">
+        <v>0.87</v>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85">
+        <v>0.05326876513317191</v>
+      </c>
+      <c r="C85">
+        <v>22</v>
+      </c>
+      <c r="D85">
+        <v>23</v>
+      </c>
+      <c r="E85">
+        <v>0.04</v>
+      </c>
+      <c r="F85">
+        <v>0.96</v>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86">
+        <v>0.05322128851540616</v>
+      </c>
+      <c r="C86">
+        <v>19</v>
+      </c>
+      <c r="D86">
+        <v>20</v>
+      </c>
+      <c r="E86">
+        <v>0.05</v>
+      </c>
+      <c r="F86">
+        <v>0.95</v>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87">
+        <v>0.05047318611987382</v>
+      </c>
+      <c r="C87">
+        <v>16</v>
+      </c>
+      <c r="D87">
+        <v>18</v>
+      </c>
+      <c r="E87">
+        <v>0.11</v>
+      </c>
+      <c r="F87">
+        <v>0.89</v>
+      </c>
+      <c r="G87" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88">
+        <v>0.04061895551257253</v>
+      </c>
+      <c r="C88">
+        <v>21</v>
+      </c>
+      <c r="D88">
+        <v>26</v>
+      </c>
+      <c r="E88">
+        <v>0.19</v>
+      </c>
+      <c r="F88">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89">
+        <v>0.03010348071495767</v>
+      </c>
+      <c r="C89">
+        <v>32</v>
+      </c>
+      <c r="D89">
+        <v>41</v>
+      </c>
+      <c r="E89">
+        <v>0.22</v>
+      </c>
+      <c r="F89">
+        <v>0.78</v>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>1031</v>
       </c>
     </row>
   </sheetData>
